--- a/medicine/Pharmacie/Événement_indésirable_médicamenteux/Événement_indésirable_médicamenteux.xlsx
+++ b/medicine/Pharmacie/Événement_indésirable_médicamenteux/Événement_indésirable_médicamenteux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89v%C3%A9nement_ind%C3%A9sirable_m%C3%A9dicamenteux</t>
+          <t>Événement_indésirable_médicamenteux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'événement indésirable médicamenteux (EIM), ou événement iatrogène médicamenteux, peut provenir d’un effet indésirable ou d’une erreur médicamenteuse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89v%C3%A9nement_ind%C3%A9sirable_m%C3%A9dicamenteux</t>
+          <t>Événement_indésirable_médicamenteux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Les personnes âgées plus touchées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les personnes âgées, une population plus fragile et plus touchée par la iatrogénèse, et en particulier médicamenteuse. 
 L’URCAM de Poitou Charentes a fait une étude sur la population des personnes âgées, qui fait notamment apparaître que : 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89v%C3%A9nement_ind%C3%A9sirable_m%C3%A9dicamenteux</t>
+          <t>Événement_indésirable_médicamenteux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aux États-Unis
-On estime que les décès attribuables aux événements indésirables médicamenteux représentent entre les 4e et 6e causes de décès dans les hôpitaux de ce pays[1]. Près de 175 000 personnes âgées sont vues aux urgences chaque année pour cette raison, les trois médicaments les plus en cause étant la warfarine (un Anticoagulant oral), l'insuline et la digoxine[2].
-Le fardeau économique de la morbidité et de la mortalité liées aux médicaments se situe entre 30 et 130 milliards de dollars annuellement[3].
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On estime que les décès attribuables aux événements indésirables médicamenteux représentent entre les 4e et 6e causes de décès dans les hôpitaux de ce pays. Près de 175 000 personnes âgées sont vues aux urgences chaque année pour cette raison, les trois médicaments les plus en cause étant la warfarine (un Anticoagulant oral), l'insuline et la digoxine.
+Le fardeau économique de la morbidité et de la mortalité liées aux médicaments se situe entre 30 et 130 milliards de dollars annuellement.
 </t>
         </is>
       </c>
